--- a/fourth_corner.xlsx
+++ b/fourth_corner.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mendelu-my.sharepoint.com/personal/xstoces_mendelu_cz1/Documents/SSD_21.12.2024/Caha_sady/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1500" documentId="13_ncr:1_{5B79330E-9E09-426C-9F16-2F51B093132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B2C93F-BF62-43FA-8395-317849EB7F9C}"/>
+  <xr:revisionPtr revIDLastSave="1517" documentId="13_ncr:1_{5B79330E-9E09-426C-9F16-2F51B093132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EB0AA8-E8D3-4825-83F0-79E5BC5F6BD5}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="810" windowWidth="36525" windowHeight="20880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,22 @@
     <sheet name="traits" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">env!$A$1:$C$1827</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">env!$A$1:$A$1827</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="403">
   <si>
     <t>Acentria ephemerella</t>
   </si>
@@ -1154,12 +1157,6 @@
     <t>Zelotherses paleana</t>
   </si>
   <si>
-    <t>Trap</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Treatment</t>
   </si>
   <si>
@@ -1330,6 +1327,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1601,9 +1602,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -7223,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -11719,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -12843,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -15091,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
@@ -16215,7 +16216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -18463,7 +18464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
@@ -19587,7 +19588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
@@ -21835,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
@@ -22959,7 +22960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
@@ -24083,7 +24084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
@@ -25207,7 +25208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -27455,7 +27456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -28579,7 +28580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -29703,7 +29704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
@@ -30827,7 +30828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -31951,7 +31952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
@@ -33075,7 +33076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
@@ -34199,7 +34200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
@@ -35323,7 +35324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -36447,7 +36448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -37571,7 +37572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -38695,7 +38696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -39819,7 +39820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -40943,7 +40944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -42067,7 +42068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -43191,7 +43192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -44315,7 +44316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -45439,7 +45440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
@@ -46563,7 +46564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
@@ -47687,7 +47688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -48811,7 +48812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -49935,7 +49936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -51059,7 +51060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -52183,7 +52184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -53307,7 +53308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -54431,7 +54432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -55555,7 +55556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -56679,7 +56680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -57803,7 +57804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -58927,7 +58928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -60051,7 +60052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -61175,7 +61176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -62299,7 +62300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -63423,7 +63424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -64547,7 +64548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -65671,7 +65672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -66795,7 +66796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -67919,7 +67920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -69043,7 +69044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -70167,7 +70168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -71291,7 +71292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -72415,7 +72416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -73539,7 +73540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -74663,7 +74664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -75787,7 +75788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -76911,7 +76912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -78035,7 +78036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -79159,7 +79160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
@@ -80283,7 +80284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -81407,7 +81408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -82531,7 +82532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -83655,7 +83656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -84779,7 +84780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -85903,7 +85904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -87027,7 +87028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -88151,7 +88152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -89275,7 +89276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -90399,7 +90400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -91523,7 +91524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -92647,7 +92648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:374" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:374" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -93778,1162 +93779,670 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BFD948-5D6A-4B23-989F-F3E9EF307C76}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="8.7109375" style="2"/>
+    <col min="3" max="3" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>374</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>377</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>377</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>378</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="B11">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>378</v>
       </c>
-      <c r="D3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>378</v>
       </c>
-      <c r="D4">
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>378</v>
       </c>
-      <c r="D5">
+      <c r="B16">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>378</v>
       </c>
-      <c r="D6">
+      <c r="B17">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>378</v>
       </c>
-      <c r="D7">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B19">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D8">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D10">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D11">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D12">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>378</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>378</v>
+      </c>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>380</v>
-      </c>
-      <c r="D14">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D15">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>380</v>
-      </c>
-      <c r="D16">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B41">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>380</v>
-      </c>
-      <c r="D17">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>376</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B43">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>13</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>380</v>
-      </c>
-      <c r="D18">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>378</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>377</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>377</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>378</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="B61">
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>378</v>
       </c>
-      <c r="D21">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>378</v>
       </c>
-      <c r="D22">
+      <c r="B65">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>378</v>
       </c>
-      <c r="D23">
+      <c r="B66">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>378</v>
       </c>
-      <c r="D24">
+      <c r="B67">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>378</v>
       </c>
-      <c r="D25">
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D26">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>376</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>376</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73">
         <v>4</v>
       </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D27">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>377</v>
+      </c>
+      <c r="B75">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>377</v>
+      </c>
+      <c r="B76">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>380</v>
-      </c>
-      <c r="D29">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>378</v>
+      </c>
+      <c r="B77">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>380</v>
-      </c>
-      <c r="D30">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>378</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+      <c r="B79">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>378</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>380</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>11</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>380</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>380</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>13</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>380</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>380</v>
-      </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>378</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>378</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>378</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>16</v>
-      </c>
-      <c r="B41">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>378</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>14</v>
-      </c>
-      <c r="B43">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>379</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>379</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>379</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>380</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>18</v>
-      </c>
-      <c r="B47">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>380</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>380</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>5</v>
-      </c>
-      <c r="B49">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>380</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>11</v>
-      </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>380</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>380</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>8</v>
-      </c>
-      <c r="C53" t="s">
-        <v>378</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>378</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>17</v>
-      </c>
-      <c r="B55">
-        <v>8</v>
-      </c>
-      <c r="C55" t="s">
-        <v>378</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56">
-        <v>8</v>
-      </c>
-      <c r="C56" t="s">
-        <v>378</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>6</v>
-      </c>
-      <c r="B57">
-        <v>8</v>
-      </c>
-      <c r="C57" t="s">
-        <v>378</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>14</v>
-      </c>
-      <c r="B58">
-        <v>8</v>
-      </c>
-      <c r="C58" t="s">
-        <v>379</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59" t="s">
-        <v>379</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>7</v>
-      </c>
-      <c r="B60">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>379</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>18</v>
-      </c>
-      <c r="B62">
-        <v>8</v>
-      </c>
-      <c r="C62" t="s">
-        <v>380</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>380</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>5</v>
-      </c>
-      <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>380</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>380</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>11</v>
-      </c>
-      <c r="B66">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>380</v>
-      </c>
-      <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>380</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>380</v>
-      </c>
-      <c r="D68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>8</v>
-      </c>
-      <c r="B69">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>380</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>378</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>3</v>
-      </c>
-      <c r="B71">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>378</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>16</v>
-      </c>
-      <c r="B72">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>378</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>6</v>
-      </c>
-      <c r="B73">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>378</v>
-      </c>
-      <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="B74">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>379</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>379</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>7</v>
-      </c>
-      <c r="B76">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>379</v>
-      </c>
-      <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>9</v>
-      </c>
-      <c r="B77">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>380</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2</v>
-      </c>
-      <c r="B78">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>380</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10</v>
-      </c>
-      <c r="B79">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>380</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>380</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>13</v>
-      </c>
-      <c r="B81">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>380</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>8</v>
-      </c>
       <c r="B82">
-        <v>9</v>
-      </c>
-      <c r="C82" t="s">
-        <v>380</v>
-      </c>
-      <c r="D82">
         <v>4</v>
       </c>
     </row>
@@ -94947,90 +94456,91 @@
   <dimension ref="A1:X375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>402</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -95104,7 +94614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -95178,7 +94688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -95252,7 +94762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -95326,7 +94836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -95400,7 +94910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -95444,7 +94954,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <v>0</v>
@@ -95474,7 +94984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -95548,7 +95058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -95622,7 +95132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -95696,7 +95206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -95770,7 +95280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0</v>
       </c>
@@ -95844,7 +95354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
@@ -95918,7 +95428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>0</v>
       </c>
@@ -95992,7 +95502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
@@ -96066,7 +95576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -96140,7 +95650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>0</v>
       </c>
@@ -96214,7 +95724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>0</v>
       </c>
@@ -96288,7 +95798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>0</v>
       </c>
@@ -96362,7 +95872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>0</v>
       </c>
@@ -96436,7 +95946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>0</v>
       </c>
@@ -96510,7 +96020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
@@ -96584,7 +96094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -96658,7 +96168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -96720,10 +96230,10 @@
         <v>0</v>
       </c>
       <c r="U24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="4">
         <v>0</v>
@@ -96732,7 +96242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -96806,7 +96316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -96880,7 +96390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -96954,7 +96464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -97028,7 +96538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -97102,7 +96612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -97176,7 +96686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0</v>
       </c>
@@ -97250,7 +96760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>0</v>
       </c>
@@ -97324,7 +96834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -97398,7 +96908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0</v>
       </c>
@@ -97472,12 +96982,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>0</v>
       </c>
       <c r="B35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -97546,7 +97056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>0</v>
       </c>
@@ -97620,7 +97130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>0</v>
       </c>
@@ -97694,7 +97204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>0</v>
       </c>
@@ -97768,7 +97278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -97842,7 +97352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>0</v>
       </c>
@@ -97916,7 +97426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -97990,7 +97500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -98064,7 +97574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0</v>
       </c>
@@ -98138,7 +97648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>0</v>
       </c>
@@ -98212,7 +97722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -98286,7 +97796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>0</v>
       </c>
@@ -98360,7 +97870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -98434,7 +97944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>0</v>
       </c>
@@ -98508,7 +98018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>0</v>
       </c>
@@ -98582,7 +98092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -98656,7 +98166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>0</v>
       </c>
@@ -98730,7 +98240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -98804,7 +98314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>0</v>
       </c>
@@ -98878,7 +98388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>0</v>
       </c>
@@ -98952,7 +98462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>0</v>
       </c>
@@ -99026,7 +98536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>0</v>
       </c>
@@ -99100,7 +98610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>0</v>
       </c>
@@ -99174,7 +98684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>0</v>
       </c>
@@ -99248,7 +98758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>0</v>
       </c>
@@ -99322,7 +98832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>0</v>
       </c>
@@ -99396,7 +98906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>0</v>
       </c>
@@ -99470,7 +98980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>0</v>
       </c>
@@ -99544,7 +99054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>0</v>
       </c>
@@ -99618,7 +99128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>0</v>
       </c>
@@ -99692,7 +99202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -99766,7 +99276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -99840,7 +99350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -99914,7 +99424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>0</v>
       </c>
@@ -99988,7 +99498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -100062,7 +99572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>0</v>
       </c>
@@ -100136,7 +99646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>0</v>
       </c>
@@ -100210,7 +99720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>0</v>
       </c>
@@ -100284,7 +99794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>0</v>
       </c>
@@ -100358,7 +99868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>0</v>
       </c>
@@ -100432,7 +99942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>0</v>
       </c>
@@ -100506,7 +100016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>0</v>
       </c>
@@ -100580,7 +100090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>0</v>
       </c>
@@ -100654,7 +100164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>0</v>
       </c>
@@ -100728,7 +100238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>0</v>
       </c>
@@ -100757,7 +100267,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="4">
         <v>0</v>
@@ -100802,7 +100312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>0</v>
       </c>
@@ -100876,7 +100386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>0</v>
       </c>
@@ -100950,7 +100460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>0</v>
       </c>
@@ -101024,7 +100534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>0</v>
       </c>
@@ -101098,7 +100608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>0</v>
       </c>
@@ -101172,7 +100682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>0</v>
       </c>
@@ -101246,7 +100756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>0</v>
       </c>
@@ -101320,7 +100830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>0</v>
       </c>
@@ -101394,7 +100904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>0</v>
       </c>
@@ -101468,7 +100978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>0</v>
       </c>
@@ -101542,7 +101052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>0</v>
       </c>
@@ -101616,7 +101126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>0</v>
       </c>
@@ -101690,7 +101200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>0</v>
       </c>
@@ -101764,7 +101274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>0</v>
       </c>
@@ -101838,7 +101348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>0</v>
       </c>
@@ -101912,7 +101422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>0</v>
       </c>
@@ -101986,7 +101496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>0</v>
       </c>
@@ -102060,7 +101570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>0</v>
       </c>
@@ -102134,7 +101644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>0</v>
       </c>
@@ -102208,7 +101718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>0</v>
       </c>
@@ -102282,7 +101792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>0</v>
       </c>
@@ -102356,7 +101866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>0</v>
       </c>
@@ -102430,7 +101940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>0</v>
       </c>
@@ -102504,7 +102014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>0</v>
       </c>
@@ -102578,7 +102088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>0</v>
       </c>
@@ -102652,7 +102162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>0</v>
       </c>
@@ -102726,7 +102236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>0</v>
       </c>
@@ -102767,7 +102277,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" s="4">
         <v>0</v>
@@ -102788,7 +102298,7 @@
         <v>0</v>
       </c>
       <c r="U106" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V106" s="4">
         <v>0</v>
@@ -102800,7 +102310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>0</v>
       </c>
@@ -102874,7 +102384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>0</v>
       </c>
@@ -102948,7 +102458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>0</v>
       </c>
@@ -103022,7 +102532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>0</v>
       </c>
@@ -103096,7 +102606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>0</v>
       </c>
@@ -103170,7 +102680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>0</v>
       </c>
@@ -103244,7 +102754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>0</v>
       </c>
@@ -103318,7 +102828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>0</v>
       </c>
@@ -103392,7 +102902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>0</v>
       </c>
@@ -103466,7 +102976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>0</v>
       </c>
@@ -103540,7 +103050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>0</v>
       </c>
@@ -103614,7 +103124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>0</v>
       </c>
@@ -103688,7 +103198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>0</v>
       </c>
@@ -103762,7 +103272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>0</v>
       </c>
@@ -103836,7 +103346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>0</v>
       </c>
@@ -103910,7 +103420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>0</v>
       </c>
@@ -103984,7 +103494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>0</v>
       </c>
@@ -104058,7 +103568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>0</v>
       </c>
@@ -104132,7 +103642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>0</v>
       </c>
@@ -104206,7 +103716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>0</v>
       </c>
@@ -104280,7 +103790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>0</v>
       </c>
@@ -104354,7 +103864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>0</v>
       </c>
@@ -104428,7 +103938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>0</v>
       </c>
@@ -104502,7 +104012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>0</v>
       </c>
@@ -104576,7 +104086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>0</v>
       </c>
@@ -104650,7 +104160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>0</v>
       </c>
@@ -104724,7 +104234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>0</v>
       </c>
@@ -104765,7 +104275,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O133" s="4">
         <v>0</v>
@@ -104798,7 +104308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>0</v>
       </c>
@@ -104872,7 +104382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>0</v>
       </c>
@@ -104946,7 +104456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>0</v>
       </c>
@@ -105020,7 +104530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>0</v>
       </c>
@@ -105094,7 +104604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>0</v>
       </c>
@@ -105168,7 +104678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>0</v>
       </c>
@@ -105242,7 +104752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>0</v>
       </c>
@@ -105316,7 +104826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>0</v>
       </c>
@@ -105390,7 +104900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>0</v>
       </c>
@@ -105464,7 +104974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>0</v>
       </c>
@@ -105538,7 +105048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>0</v>
       </c>
@@ -105612,7 +105122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>0</v>
       </c>
@@ -105686,7 +105196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>0</v>
       </c>
@@ -105760,7 +105270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>0</v>
       </c>
@@ -105834,7 +105344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>0</v>
       </c>
@@ -105908,7 +105418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>0</v>
       </c>
@@ -105982,7 +105492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>0</v>
       </c>
@@ -106056,7 +105566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>0</v>
       </c>
@@ -106130,7 +105640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>0</v>
       </c>
@@ -106204,7 +105714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>0</v>
       </c>
@@ -106278,7 +105788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>0</v>
       </c>
@@ -106352,7 +105862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>0</v>
       </c>
@@ -106426,7 +105936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>0</v>
       </c>
@@ -106500,7 +106010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>0</v>
       </c>
@@ -106574,7 +106084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>0</v>
       </c>
@@ -106648,7 +106158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>0</v>
       </c>
@@ -106722,7 +106232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>0</v>
       </c>
@@ -106796,7 +106306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>0</v>
       </c>
@@ -106870,7 +106380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>0</v>
       </c>
@@ -106944,7 +106454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>0</v>
       </c>
@@ -107018,7 +106528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>0</v>
       </c>
@@ -107092,7 +106602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>0</v>
       </c>
@@ -107166,7 +106676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>0</v>
       </c>
@@ -107240,7 +106750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>0</v>
       </c>
@@ -107314,7 +106824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>0</v>
       </c>
@@ -107388,7 +106898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>0</v>
       </c>
@@ -107462,7 +106972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>0</v>
       </c>
@@ -107536,7 +107046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>0</v>
       </c>
@@ -107610,7 +107120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>0</v>
       </c>
@@ -107684,7 +107194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>0</v>
       </c>
@@ -107758,7 +107268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>0</v>
       </c>
@@ -107832,7 +107342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>0</v>
       </c>
@@ -107906,7 +107416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>0</v>
       </c>
@@ -107980,7 +107490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>0</v>
       </c>
@@ -108054,12 +107564,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>0</v>
       </c>
       <c r="B178" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
@@ -108128,7 +107638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>0</v>
       </c>
@@ -108202,7 +107712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>0</v>
       </c>
@@ -108276,7 +107786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>0</v>
       </c>
@@ -108350,7 +107860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>0</v>
       </c>
@@ -108424,7 +107934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>0</v>
       </c>
@@ -108468,10 +107978,10 @@
         <v>0</v>
       </c>
       <c r="O183" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P183" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q183" s="4">
         <v>0</v>
@@ -108498,7 +108008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>0</v>
       </c>
@@ -108572,7 +108082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>0</v>
       </c>
@@ -108646,7 +108156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>0</v>
       </c>
@@ -108720,7 +108230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>0</v>
       </c>
@@ -108794,7 +108304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>0</v>
       </c>
@@ -108868,7 +108378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>0</v>
       </c>
@@ -108942,7 +108452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>0</v>
       </c>
@@ -109016,7 +108526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>0</v>
       </c>
@@ -109033,7 +108543,7 @@
         <v>0</v>
       </c>
       <c r="F191" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G191" s="4">
         <v>0</v>
@@ -109054,7 +108564,7 @@
         <v>0</v>
       </c>
       <c r="M191" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N191" s="4">
         <v>0</v>
@@ -109090,7 +108600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>0</v>
       </c>
@@ -109127,7 +108637,7 @@
       <c r="L192" s="4">
         <v>0</v>
       </c>
-      <c r="M192">
+      <c r="M192" s="4">
         <v>0</v>
       </c>
       <c r="N192" s="4">
@@ -109164,11 +108674,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>0</v>
       </c>
-      <c r="B193" s="4"/>
+      <c r="B193" s="4">
+        <v>0</v>
+      </c>
       <c r="C193" s="4">
         <v>0</v>
       </c>
@@ -109179,7 +108691,7 @@
         <v>0</v>
       </c>
       <c r="F193" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193" s="4">
         <v>0</v>
@@ -109199,7 +108711,7 @@
       <c r="L193" s="4">
         <v>0</v>
       </c>
-      <c r="M193">
+      <c r="M193" s="4">
         <v>0</v>
       </c>
       <c r="N193" s="4">
@@ -109236,11 +108748,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" s="4">
         <v>0</v>
       </c>
-      <c r="B194" s="4"/>
+      <c r="B194" s="4">
+        <v>0</v>
+      </c>
       <c r="C194" s="4">
         <v>0</v>
       </c>
@@ -109271,7 +108785,7 @@
       <c r="L194" s="4">
         <v>0</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="4">
         <v>0</v>
       </c>
       <c r="N194" s="4">
@@ -109308,11 +108822,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <v>0</v>
       </c>
-      <c r="B195" s="4"/>
+      <c r="B195" s="4">
+        <v>0</v>
+      </c>
       <c r="C195" s="4">
         <v>0</v>
       </c>
@@ -109343,7 +108859,7 @@
       <c r="L195" s="4">
         <v>0</v>
       </c>
-      <c r="M195">
+      <c r="M195" s="4">
         <v>0</v>
       </c>
       <c r="N195" s="4">
@@ -109380,11 +108896,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" s="4">
         <v>0</v>
       </c>
-      <c r="B196" s="4"/>
+      <c r="B196" s="4">
+        <v>0</v>
+      </c>
       <c r="C196" s="4">
         <v>0</v>
       </c>
@@ -109415,7 +108933,7 @@
       <c r="L196" s="4">
         <v>0</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="4">
         <v>0</v>
       </c>
       <c r="N196" s="4">
@@ -109452,11 +108970,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <v>0</v>
       </c>
-      <c r="B197" s="4"/>
+      <c r="B197" s="4">
+        <v>0</v>
+      </c>
       <c r="C197" s="4">
         <v>0</v>
       </c>
@@ -109487,7 +109007,7 @@
       <c r="L197" s="4">
         <v>0</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="4">
         <v>0</v>
       </c>
       <c r="N197" s="4">
@@ -109524,11 +109044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" s="4">
         <v>0</v>
       </c>
-      <c r="B198" s="4"/>
+      <c r="B198" s="4">
+        <v>0</v>
+      </c>
       <c r="C198" s="4">
         <v>0</v>
       </c>
@@ -109559,7 +109081,7 @@
       <c r="L198" s="4">
         <v>0</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="4">
         <v>0</v>
       </c>
       <c r="N198" s="4">
@@ -109596,11 +109118,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <v>0</v>
       </c>
-      <c r="B199" s="4"/>
+      <c r="B199" s="4">
+        <v>0</v>
+      </c>
       <c r="C199" s="4">
         <v>0</v>
       </c>
@@ -109631,7 +109155,7 @@
       <c r="L199" s="4">
         <v>0</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="4">
         <v>0</v>
       </c>
       <c r="N199" s="4">
@@ -109668,11 +109192,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" s="4">
         <v>0</v>
       </c>
-      <c r="B200" s="4"/>
+      <c r="B200" s="4">
+        <v>0</v>
+      </c>
       <c r="C200" s="4">
         <v>0</v>
       </c>
@@ -109703,7 +109229,7 @@
       <c r="L200" s="4">
         <v>0</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="4">
         <v>0</v>
       </c>
       <c r="N200" s="4">
@@ -109740,11 +109266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <v>0</v>
       </c>
-      <c r="B201" s="4"/>
+      <c r="B201" s="4">
+        <v>0</v>
+      </c>
       <c r="C201" s="4">
         <v>0</v>
       </c>
@@ -109775,7 +109303,7 @@
       <c r="L201" s="4">
         <v>0</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="4">
         <v>0</v>
       </c>
       <c r="N201" s="4">
@@ -109812,11 +109340,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" s="4">
         <v>0</v>
       </c>
-      <c r="B202" s="4"/>
+      <c r="B202" s="4">
+        <v>0</v>
+      </c>
       <c r="C202" s="4">
         <v>0</v>
       </c>
@@ -109847,7 +109377,7 @@
       <c r="L202" s="4">
         <v>0</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="4">
         <v>0</v>
       </c>
       <c r="N202" s="4">
@@ -109884,11 +109414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <v>0</v>
       </c>
-      <c r="B203" s="4"/>
+      <c r="B203" s="4">
+        <v>0</v>
+      </c>
       <c r="C203" s="4">
         <v>0</v>
       </c>
@@ -109919,7 +109451,7 @@
       <c r="L203" s="4">
         <v>0</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="4">
         <v>0</v>
       </c>
       <c r="N203" s="4">
@@ -109956,11 +109488,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" s="4">
         <v>0</v>
       </c>
-      <c r="B204" s="4"/>
+      <c r="B204" s="4">
+        <v>0</v>
+      </c>
       <c r="C204" s="4">
         <v>0</v>
       </c>
@@ -109991,7 +109525,7 @@
       <c r="L204" s="4">
         <v>0</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="4">
         <v>0</v>
       </c>
       <c r="N204" s="4">
@@ -110028,11 +109562,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <v>0</v>
       </c>
-      <c r="B205" s="4"/>
+      <c r="B205" s="4">
+        <v>0</v>
+      </c>
       <c r="C205" s="4">
         <v>0</v>
       </c>
@@ -110063,7 +109599,7 @@
       <c r="L205" s="4">
         <v>0</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="4">
         <v>0</v>
       </c>
       <c r="N205" s="4">
@@ -110100,11 +109636,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" s="4">
         <v>0</v>
       </c>
-      <c r="B206" s="4"/>
+      <c r="B206" s="4">
+        <v>0</v>
+      </c>
       <c r="C206" s="4">
         <v>0</v>
       </c>
@@ -110135,7 +109673,7 @@
       <c r="L206" s="4">
         <v>0</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="4">
         <v>0</v>
       </c>
       <c r="N206" s="4">
@@ -110172,11 +109710,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <v>0</v>
       </c>
-      <c r="B207" s="4"/>
+      <c r="B207" s="4">
+        <v>0</v>
+      </c>
       <c r="C207" s="4">
         <v>0</v>
       </c>
@@ -110207,7 +109747,7 @@
       <c r="L207" s="4">
         <v>0</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="4">
         <v>0</v>
       </c>
       <c r="N207" s="4">
@@ -110244,11 +109784,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" s="4">
         <v>0</v>
       </c>
-      <c r="B208" s="4"/>
+      <c r="B208" s="4">
+        <v>0</v>
+      </c>
       <c r="C208" s="4">
         <v>0</v>
       </c>
@@ -110316,11 +109858,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <v>0</v>
       </c>
-      <c r="B209" s="4"/>
+      <c r="B209" s="4">
+        <v>0</v>
+      </c>
       <c r="C209" s="4">
         <v>0</v>
       </c>
@@ -110388,11 +109932,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" s="4">
         <v>0</v>
       </c>
-      <c r="B210" s="4"/>
+      <c r="B210" s="4">
+        <v>0</v>
+      </c>
       <c r="C210" s="4">
         <v>0</v>
       </c>
@@ -110460,11 +110006,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <v>0</v>
       </c>
-      <c r="B211" s="4"/>
+      <c r="B211" s="4">
+        <v>0</v>
+      </c>
       <c r="C211" s="4">
         <v>0</v>
       </c>
@@ -110532,11 +110080,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" s="4">
         <v>0</v>
       </c>
-      <c r="B212" s="4"/>
+      <c r="B212" s="4">
+        <v>0</v>
+      </c>
       <c r="C212" s="4">
         <v>0</v>
       </c>
@@ -110604,11 +110154,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <v>0</v>
       </c>
-      <c r="B213" s="4"/>
+      <c r="B213" s="4">
+        <v>0</v>
+      </c>
       <c r="C213" s="4">
         <v>0</v>
       </c>
@@ -110619,7 +110171,7 @@
         <v>0</v>
       </c>
       <c r="F213" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G213" s="4">
         <v>0</v>
@@ -110640,7 +110192,7 @@
         <v>0</v>
       </c>
       <c r="M213" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N213" s="4">
         <v>0</v>
@@ -110676,11 +110228,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A214" s="4">
         <v>0</v>
       </c>
-      <c r="B214" s="4"/>
+      <c r="B214" s="4">
+        <v>0</v>
+      </c>
       <c r="C214" s="4">
         <v>0</v>
       </c>
@@ -110748,11 +110302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <v>0</v>
       </c>
-      <c r="B215" s="4"/>
+      <c r="B215" s="4">
+        <v>0</v>
+      </c>
       <c r="C215" s="4">
         <v>0</v>
       </c>
@@ -110820,11 +110376,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A216" s="4">
         <v>0</v>
       </c>
-      <c r="B216" s="4"/>
+      <c r="B216" s="4">
+        <v>0</v>
+      </c>
       <c r="C216" s="4">
         <v>0</v>
       </c>
@@ -110847,7 +110405,7 @@
         <v>0</v>
       </c>
       <c r="J216" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K216" s="4">
         <v>0</v>
@@ -110856,7 +110414,7 @@
         <v>0</v>
       </c>
       <c r="M216" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N216" s="4">
         <v>0</v>
@@ -110892,11 +110450,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <v>0</v>
       </c>
-      <c r="B217" s="4"/>
+      <c r="B217" s="4">
+        <v>0</v>
+      </c>
       <c r="C217" s="4">
         <v>0</v>
       </c>
@@ -110955,7 +110515,7 @@
         <v>0</v>
       </c>
       <c r="V217" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W217" s="4">
         <v>0</v>
@@ -110964,11 +110524,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A218" s="4">
         <v>0</v>
       </c>
-      <c r="B218" s="4"/>
+      <c r="B218" s="4">
+        <v>0</v>
+      </c>
       <c r="C218" s="4">
         <v>0</v>
       </c>
@@ -111009,7 +110571,7 @@
         <v>0</v>
       </c>
       <c r="P218" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q218" s="4">
         <v>0</v>
@@ -111027,7 +110589,7 @@
         <v>0</v>
       </c>
       <c r="V218" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W218" s="4">
         <v>0</v>
@@ -111036,11 +110598,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <v>0</v>
       </c>
-      <c r="B219" s="4"/>
+      <c r="B219" s="4">
+        <v>0</v>
+      </c>
       <c r="C219" s="4">
         <v>0</v>
       </c>
@@ -111072,7 +110636,7 @@
         <v>0</v>
       </c>
       <c r="M219" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N219" s="4">
         <v>0</v>
@@ -111108,11 +110672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A220" s="4">
         <v>0</v>
       </c>
-      <c r="B220" s="4"/>
+      <c r="B220" s="4">
+        <v>0</v>
+      </c>
       <c r="C220" s="4">
         <v>0</v>
       </c>
@@ -111144,7 +110710,7 @@
         <v>0</v>
       </c>
       <c r="M220" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N220" s="4">
         <v>0</v>
@@ -111180,11 +110746,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <v>0</v>
       </c>
-      <c r="B221" s="4"/>
+      <c r="B221" s="4">
+        <v>0</v>
+      </c>
       <c r="C221" s="4">
         <v>0</v>
       </c>
@@ -111252,11 +110820,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A222" s="4">
         <v>0</v>
       </c>
-      <c r="B222" s="4"/>
+      <c r="B222" s="4">
+        <v>0</v>
+      </c>
       <c r="C222" s="4">
         <v>0</v>
       </c>
@@ -111291,7 +110861,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O222" s="4">
         <v>0</v>
@@ -111312,7 +110882,7 @@
         <v>0</v>
       </c>
       <c r="U222" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V222" s="4">
         <v>0</v>
@@ -111324,11 +110894,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <v>0</v>
       </c>
-      <c r="B223" s="4"/>
+      <c r="B223" s="4">
+        <v>0</v>
+      </c>
       <c r="C223" s="4">
         <v>0</v>
       </c>
@@ -111396,11 +110968,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A224" s="4">
         <v>0</v>
       </c>
-      <c r="B224" s="4"/>
+      <c r="B224" s="4">
+        <v>0</v>
+      </c>
       <c r="C224" s="4">
         <v>0</v>
       </c>
@@ -111468,11 +111042,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <v>0</v>
       </c>
-      <c r="B225" s="4"/>
+      <c r="B225" s="4">
+        <v>0</v>
+      </c>
       <c r="C225" s="4">
         <v>0</v>
       </c>
@@ -111540,7 +111116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A226" s="4">
         <v>0</v>
       </c>
@@ -111614,11 +111190,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <v>0</v>
       </c>
-      <c r="B227" s="4"/>
+      <c r="B227" s="4">
+        <v>0</v>
+      </c>
       <c r="C227" s="4">
         <v>0</v>
       </c>
@@ -111686,11 +111264,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A228" s="4">
         <v>0</v>
       </c>
-      <c r="B228" s="4"/>
+      <c r="B228" s="4">
+        <v>0</v>
+      </c>
       <c r="C228" s="4">
         <v>0</v>
       </c>
@@ -111758,11 +111338,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>0</v>
       </c>
-      <c r="B229" s="4"/>
+      <c r="B229" s="4">
+        <v>0</v>
+      </c>
       <c r="C229" s="4">
         <v>0</v>
       </c>
@@ -111830,11 +111412,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A230" s="4">
         <v>0</v>
       </c>
-      <c r="B230" s="4"/>
+      <c r="B230" s="4">
+        <v>0</v>
+      </c>
       <c r="C230" s="4">
         <v>0</v>
       </c>
@@ -111902,11 +111486,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <v>0</v>
       </c>
-      <c r="B231" s="4"/>
+      <c r="B231" s="4">
+        <v>0</v>
+      </c>
       <c r="C231" s="4">
         <v>0</v>
       </c>
@@ -111974,11 +111560,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A232" s="4">
         <v>0</v>
       </c>
-      <c r="B232" s="4"/>
+      <c r="B232" s="4">
+        <v>0</v>
+      </c>
       <c r="C232" s="4">
         <v>0</v>
       </c>
@@ -112016,10 +111604,10 @@
         <v>0</v>
       </c>
       <c r="O232" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P232" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q232" s="4">
         <v>0</v>
@@ -112046,11 +111634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <v>0</v>
       </c>
-      <c r="B233" s="4"/>
+      <c r="B233" s="4">
+        <v>0</v>
+      </c>
       <c r="C233" s="4">
         <v>0</v>
       </c>
@@ -112118,11 +111708,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>0</v>
       </c>
-      <c r="B234" s="4"/>
+      <c r="B234" s="4">
+        <v>0</v>
+      </c>
       <c r="C234" s="4">
         <v>0</v>
       </c>
@@ -112190,11 +111782,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <v>0</v>
       </c>
-      <c r="B235" s="4"/>
+      <c r="B235" s="4">
+        <v>0</v>
+      </c>
       <c r="C235" s="4">
         <v>0</v>
       </c>
@@ -112262,11 +111856,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A236" s="4">
         <v>0</v>
       </c>
-      <c r="B236" s="4"/>
+      <c r="B236" s="4">
+        <v>0</v>
+      </c>
       <c r="C236" s="4">
         <v>0</v>
       </c>
@@ -112334,11 +111930,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <v>0</v>
       </c>
-      <c r="B237" s="4"/>
+      <c r="B237" s="4">
+        <v>0</v>
+      </c>
       <c r="C237" s="4">
         <v>0</v>
       </c>
@@ -112406,11 +112004,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A238" s="4">
         <v>0</v>
       </c>
-      <c r="B238" s="4"/>
+      <c r="B238" s="4">
+        <v>0</v>
+      </c>
       <c r="C238" s="4">
         <v>0</v>
       </c>
@@ -112478,11 +112078,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <v>0</v>
       </c>
-      <c r="B239" s="4"/>
+      <c r="B239" s="4">
+        <v>0</v>
+      </c>
       <c r="C239" s="4">
         <v>0</v>
       </c>
@@ -112550,11 +112152,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A240" s="4">
         <v>0</v>
       </c>
-      <c r="B240" s="4"/>
+      <c r="B240" s="4">
+        <v>0</v>
+      </c>
       <c r="C240" s="4">
         <v>0</v>
       </c>
@@ -112622,11 +112226,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <v>0</v>
       </c>
-      <c r="B241" s="4"/>
+      <c r="B241" s="4">
+        <v>0</v>
+      </c>
       <c r="C241" s="4">
         <v>0</v>
       </c>
@@ -112694,11 +112300,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A242" s="4">
         <v>0</v>
       </c>
-      <c r="B242" s="4"/>
+      <c r="B242" s="4">
+        <v>0</v>
+      </c>
       <c r="C242" s="4">
         <v>0</v>
       </c>
@@ -112766,11 +112374,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <v>0</v>
       </c>
-      <c r="B243" s="4"/>
+      <c r="B243" s="4">
+        <v>0</v>
+      </c>
       <c r="C243" s="4">
         <v>0</v>
       </c>
@@ -112838,11 +112448,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A244" s="4">
         <v>0</v>
       </c>
-      <c r="B244" s="4"/>
+      <c r="B244" s="4">
+        <v>0</v>
+      </c>
       <c r="C244" s="4">
         <v>0</v>
       </c>
@@ -112910,11 +112522,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <v>0</v>
       </c>
-      <c r="B245" s="4"/>
+      <c r="B245" s="4">
+        <v>0</v>
+      </c>
       <c r="C245" s="4">
         <v>0</v>
       </c>
@@ -112982,11 +112596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A246" s="4">
         <v>0</v>
       </c>
-      <c r="B246" s="4"/>
+      <c r="B246" s="4">
+        <v>0</v>
+      </c>
       <c r="C246" s="4">
         <v>0</v>
       </c>
@@ -113054,11 +112670,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <v>0</v>
       </c>
-      <c r="B247" s="4"/>
+      <c r="B247" s="4">
+        <v>0</v>
+      </c>
       <c r="C247" s="4">
         <v>0</v>
       </c>
@@ -113126,11 +112744,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A248" s="4">
         <v>0</v>
       </c>
-      <c r="B248" s="4"/>
+      <c r="B248" s="4">
+        <v>0</v>
+      </c>
       <c r="C248" s="4">
         <v>0</v>
       </c>
@@ -113198,11 +112818,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <v>0</v>
       </c>
-      <c r="B249" s="4"/>
+      <c r="B249" s="4">
+        <v>0</v>
+      </c>
       <c r="C249" s="4">
         <v>0</v>
       </c>
@@ -113270,11 +112892,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A250" s="4">
         <v>0</v>
       </c>
-      <c r="B250" s="4"/>
+      <c r="B250" s="4">
+        <v>0</v>
+      </c>
       <c r="C250" s="4">
         <v>1</v>
       </c>
@@ -113342,10 +112966,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A251" s="4">
         <v>0</v>
       </c>
+      <c r="B251" s="4">
+        <v>0</v>
+      </c>
       <c r="C251">
         <v>0</v>
       </c>
@@ -113413,10 +113040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A252" s="4">
         <v>0</v>
       </c>
+      <c r="B252" s="4">
+        <v>0</v>
+      </c>
       <c r="C252">
         <v>0</v>
       </c>
@@ -113484,10 +113114,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <v>0</v>
       </c>
+      <c r="B253" s="4">
+        <v>0</v>
+      </c>
       <c r="C253">
         <v>0</v>
       </c>
@@ -113555,10 +113188,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A254" s="4">
         <v>0</v>
       </c>
+      <c r="B254" s="4">
+        <v>0</v>
+      </c>
       <c r="C254">
         <v>0</v>
       </c>
@@ -113626,10 +113262,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>0</v>
       </c>
+      <c r="B255" s="4">
+        <v>0</v>
+      </c>
       <c r="C255">
         <v>0</v>
       </c>
@@ -113697,10 +113336,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>0</v>
       </c>
+      <c r="B256" s="4">
+        <v>0</v>
+      </c>
       <c r="C256">
         <v>0</v>
       </c>
@@ -113768,11 +113410,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <v>0</v>
       </c>
-      <c r="B257" s="4"/>
+      <c r="B257" s="4">
+        <v>0</v>
+      </c>
       <c r="C257">
         <v>0</v>
       </c>
@@ -113840,11 +113484,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>0</v>
       </c>
-      <c r="B258" s="4"/>
+      <c r="B258" s="4">
+        <v>0</v>
+      </c>
       <c r="C258">
         <v>0</v>
       </c>
@@ -113912,7 +113558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>0</v>
       </c>
@@ -113986,7 +113632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A260" s="4">
         <v>0</v>
       </c>
@@ -114060,7 +113706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <v>0</v>
       </c>
@@ -114134,7 +113780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A262" s="4">
         <v>0</v>
       </c>
@@ -114208,11 +113854,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <v>0</v>
       </c>
-      <c r="B263" s="4"/>
+      <c r="B263" s="4">
+        <v>0</v>
+      </c>
       <c r="C263">
         <v>0</v>
       </c>
@@ -114280,11 +113928,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A264" s="4">
         <v>0</v>
       </c>
-      <c r="B264" s="4"/>
+      <c r="B264" s="4">
+        <v>0</v>
+      </c>
       <c r="C264">
         <v>0</v>
       </c>
@@ -114352,11 +114002,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <v>0</v>
       </c>
-      <c r="B265" s="4"/>
+      <c r="B265" s="4">
+        <v>0</v>
+      </c>
       <c r="C265">
         <v>0</v>
       </c>
@@ -114424,11 +114076,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A266" s="4">
         <v>0</v>
       </c>
-      <c r="B266" s="4"/>
+      <c r="B266" s="4">
+        <v>0</v>
+      </c>
       <c r="C266">
         <v>0</v>
       </c>
@@ -114496,11 +114150,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <v>0</v>
       </c>
-      <c r="B267" s="4"/>
+      <c r="B267" s="4">
+        <v>0</v>
+      </c>
       <c r="C267">
         <v>0</v>
       </c>
@@ -114568,11 +114224,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A268" s="4">
         <v>0</v>
       </c>
-      <c r="B268" s="4"/>
+      <c r="B268" s="4">
+        <v>0</v>
+      </c>
       <c r="C268">
         <v>0</v>
       </c>
@@ -114640,11 +114298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <v>0</v>
       </c>
-      <c r="B269" s="4"/>
+      <c r="B269" s="4">
+        <v>0</v>
+      </c>
       <c r="C269">
         <v>0</v>
       </c>
@@ -114712,11 +114372,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A270" s="4">
         <v>0</v>
       </c>
-      <c r="B270" s="4"/>
+      <c r="B270" s="4">
+        <v>0</v>
+      </c>
       <c r="C270">
         <v>0</v>
       </c>
@@ -114784,11 +114446,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <v>0</v>
       </c>
-      <c r="B271" s="4"/>
+      <c r="B271" s="4">
+        <v>0</v>
+      </c>
       <c r="C271">
         <v>0</v>
       </c>
@@ -114856,11 +114520,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A272" s="4">
         <v>0</v>
       </c>
-      <c r="B272" s="4"/>
+      <c r="B272" s="4">
+        <v>0</v>
+      </c>
       <c r="C272">
         <v>0</v>
       </c>
@@ -114928,11 +114594,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <v>0</v>
       </c>
-      <c r="B273" s="4"/>
+      <c r="B273" s="4">
+        <v>0</v>
+      </c>
       <c r="C273">
         <v>0</v>
       </c>
@@ -115000,11 +114668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A274" s="4">
         <v>0</v>
       </c>
-      <c r="B274" s="4"/>
+      <c r="B274" s="4">
+        <v>0</v>
+      </c>
       <c r="C274">
         <v>0</v>
       </c>
@@ -115039,7 +114709,7 @@
         <v>0</v>
       </c>
       <c r="N274" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O274" s="4">
         <v>0</v>
@@ -115072,11 +114742,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <v>0</v>
       </c>
-      <c r="B275" s="4"/>
+      <c r="B275" s="4">
+        <v>0</v>
+      </c>
       <c r="C275">
         <v>0</v>
       </c>
@@ -115144,11 +114816,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A276" s="4">
         <v>0</v>
       </c>
-      <c r="B276" s="4"/>
+      <c r="B276" s="4">
+        <v>0</v>
+      </c>
       <c r="C276">
         <v>0</v>
       </c>
@@ -115216,11 +114890,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <v>0</v>
       </c>
-      <c r="B277" s="4"/>
+      <c r="B277" s="4">
+        <v>0</v>
+      </c>
       <c r="C277">
         <v>0</v>
       </c>
@@ -115288,11 +114964,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A278" s="4">
         <v>0</v>
       </c>
-      <c r="B278" s="4"/>
+      <c r="B278" s="4">
+        <v>0</v>
+      </c>
       <c r="C278">
         <v>0</v>
       </c>
@@ -115360,11 +115038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <v>0</v>
       </c>
-      <c r="B279" s="4"/>
+      <c r="B279" s="4">
+        <v>0</v>
+      </c>
       <c r="C279">
         <v>0</v>
       </c>
@@ -115432,11 +115112,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A280" s="4">
         <v>0</v>
       </c>
-      <c r="B280" s="4"/>
+      <c r="B280" s="4">
+        <v>0</v>
+      </c>
       <c r="C280">
         <v>0</v>
       </c>
@@ -115504,11 +115186,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <v>0</v>
       </c>
-      <c r="B281" s="4"/>
+      <c r="B281" s="4">
+        <v>0</v>
+      </c>
       <c r="C281">
         <v>0</v>
       </c>
@@ -115576,11 +115260,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A282" s="4">
         <v>0</v>
       </c>
-      <c r="B282" s="4"/>
+      <c r="B282" s="4">
+        <v>0</v>
+      </c>
       <c r="C282">
         <v>0</v>
       </c>
@@ -115648,11 +115334,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <v>0</v>
       </c>
-      <c r="B283" s="4"/>
+      <c r="B283" s="4">
+        <v>0</v>
+      </c>
       <c r="C283">
         <v>0</v>
       </c>
@@ -115720,11 +115408,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A284" s="4">
         <v>0</v>
       </c>
-      <c r="B284" s="4"/>
+      <c r="B284" s="4">
+        <v>0</v>
+      </c>
       <c r="C284">
         <v>0</v>
       </c>
@@ -115792,11 +115482,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <v>0</v>
       </c>
-      <c r="B285" s="4"/>
+      <c r="B285" s="4">
+        <v>0</v>
+      </c>
       <c r="C285">
         <v>0</v>
       </c>
@@ -115864,11 +115556,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A286" s="4">
         <v>0</v>
       </c>
-      <c r="B286" s="4"/>
+      <c r="B286" s="4">
+        <v>0</v>
+      </c>
       <c r="C286">
         <v>0</v>
       </c>
@@ -115936,11 +115630,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A287" s="4">
         <v>0</v>
       </c>
-      <c r="B287" s="4"/>
+      <c r="B287" s="4">
+        <v>0</v>
+      </c>
       <c r="C287">
         <v>0</v>
       </c>
@@ -116008,11 +115704,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A288" s="4">
         <v>0</v>
       </c>
-      <c r="B288" s="4"/>
+      <c r="B288" s="4">
+        <v>0</v>
+      </c>
       <c r="C288">
         <v>0</v>
       </c>
@@ -116080,11 +115778,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <v>0</v>
       </c>
-      <c r="B289" s="4"/>
+      <c r="B289" s="4">
+        <v>0</v>
+      </c>
       <c r="C289">
         <v>0</v>
       </c>
@@ -116152,11 +115852,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A290" s="4">
         <v>0</v>
       </c>
-      <c r="B290" s="4"/>
+      <c r="B290" s="4">
+        <v>0</v>
+      </c>
       <c r="C290">
         <v>0</v>
       </c>
@@ -116224,11 +115926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <v>0</v>
       </c>
-      <c r="B291" s="4"/>
+      <c r="B291" s="4">
+        <v>0</v>
+      </c>
       <c r="C291">
         <v>0</v>
       </c>
@@ -116296,11 +116000,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A292" s="4">
         <v>0</v>
       </c>
-      <c r="B292" s="4"/>
+      <c r="B292" s="4">
+        <v>0</v>
+      </c>
       <c r="C292">
         <v>0</v>
       </c>
@@ -116368,11 +116074,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <v>0</v>
       </c>
-      <c r="B293" s="4"/>
+      <c r="B293" s="4">
+        <v>0</v>
+      </c>
       <c r="C293">
         <v>0</v>
       </c>
@@ -116440,11 +116148,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A294" s="4">
         <v>0</v>
       </c>
-      <c r="B294" s="4"/>
+      <c r="B294" s="4">
+        <v>0</v>
+      </c>
       <c r="C294">
         <v>0</v>
       </c>
@@ -116512,11 +116222,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <v>0</v>
       </c>
-      <c r="B295" s="4"/>
+      <c r="B295" s="4">
+        <v>0</v>
+      </c>
       <c r="C295">
         <v>0</v>
       </c>
@@ -116584,11 +116296,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A296" s="4">
         <v>0</v>
       </c>
-      <c r="B296" s="4"/>
+      <c r="B296" s="4">
+        <v>0</v>
+      </c>
       <c r="C296">
         <v>0</v>
       </c>
@@ -116656,11 +116370,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <v>0</v>
       </c>
-      <c r="B297" s="4"/>
+      <c r="B297" s="4">
+        <v>0</v>
+      </c>
       <c r="C297">
         <v>0</v>
       </c>
@@ -116728,11 +116444,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A298" s="4">
         <v>0</v>
       </c>
-      <c r="B298" s="4"/>
+      <c r="B298" s="4">
+        <v>0</v>
+      </c>
       <c r="C298">
         <v>0</v>
       </c>
@@ -116800,7 +116518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <v>0</v>
       </c>
@@ -116874,11 +116592,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A300" s="4">
         <v>0</v>
       </c>
-      <c r="B300" s="4"/>
+      <c r="B300" s="4">
+        <v>0</v>
+      </c>
       <c r="C300">
         <v>0</v>
       </c>
@@ -116946,11 +116666,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <v>0</v>
       </c>
-      <c r="B301" s="4"/>
+      <c r="B301" s="4">
+        <v>0</v>
+      </c>
       <c r="C301">
         <v>0</v>
       </c>
@@ -117018,11 +116740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A302" s="4">
         <v>0</v>
       </c>
-      <c r="B302" s="4"/>
+      <c r="B302" s="4">
+        <v>0</v>
+      </c>
       <c r="C302">
         <v>0</v>
       </c>
@@ -117090,11 +116814,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <v>0</v>
       </c>
-      <c r="B303" s="4"/>
+      <c r="B303" s="4">
+        <v>0</v>
+      </c>
       <c r="C303">
         <v>0</v>
       </c>
@@ -117132,10 +116858,10 @@
         <v>0</v>
       </c>
       <c r="O303" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P303" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q303" s="4">
         <v>0</v>
@@ -117162,11 +116888,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A304" s="4">
         <v>0</v>
       </c>
-      <c r="B304" s="4"/>
+      <c r="B304" s="4">
+        <v>0</v>
+      </c>
       <c r="C304">
         <v>0</v>
       </c>
@@ -117234,11 +116962,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <v>0</v>
       </c>
-      <c r="B305" s="4"/>
+      <c r="B305" s="4">
+        <v>0</v>
+      </c>
       <c r="C305">
         <v>0</v>
       </c>
@@ -117306,11 +117036,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A306" s="4">
         <v>0</v>
       </c>
-      <c r="B306" s="4"/>
+      <c r="B306" s="4">
+        <v>0</v>
+      </c>
       <c r="C306">
         <v>0</v>
       </c>
@@ -117378,11 +117110,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <v>0</v>
       </c>
-      <c r="B307" s="4"/>
+      <c r="B307" s="4">
+        <v>0</v>
+      </c>
       <c r="C307">
         <v>0</v>
       </c>
@@ -117450,11 +117184,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A308" s="4">
         <v>0</v>
       </c>
-      <c r="B308" s="4"/>
+      <c r="B308" s="4">
+        <v>0</v>
+      </c>
       <c r="C308">
         <v>0</v>
       </c>
@@ -117522,11 +117258,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <v>0</v>
       </c>
-      <c r="B309" s="4"/>
+      <c r="B309" s="4">
+        <v>0</v>
+      </c>
       <c r="C309">
         <v>0</v>
       </c>
@@ -117594,11 +117332,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A310" s="4">
         <v>0</v>
       </c>
-      <c r="B310" s="4"/>
+      <c r="B310" s="4">
+        <v>0</v>
+      </c>
       <c r="C310">
         <v>0</v>
       </c>
@@ -117666,11 +117406,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <v>0</v>
       </c>
-      <c r="B311" s="4"/>
+      <c r="B311" s="4">
+        <v>0</v>
+      </c>
       <c r="C311">
         <v>0</v>
       </c>
@@ -117738,11 +117480,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A312" s="4">
         <v>0</v>
       </c>
-      <c r="B312" s="4"/>
+      <c r="B312" s="4">
+        <v>0</v>
+      </c>
       <c r="C312">
         <v>0</v>
       </c>
@@ -117810,11 +117554,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <v>0</v>
       </c>
-      <c r="B313" s="4"/>
+      <c r="B313" s="4">
+        <v>0</v>
+      </c>
       <c r="C313">
         <v>0</v>
       </c>
@@ -117882,11 +117628,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A314" s="4">
         <v>0</v>
       </c>
-      <c r="B314" s="4"/>
+      <c r="B314" s="4">
+        <v>0</v>
+      </c>
       <c r="C314">
         <v>0</v>
       </c>
@@ -117954,11 +117702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <v>0</v>
       </c>
-      <c r="B315" s="4"/>
+      <c r="B315" s="4">
+        <v>0</v>
+      </c>
       <c r="C315">
         <v>0</v>
       </c>
@@ -118026,11 +117776,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A316" s="4">
         <v>0</v>
       </c>
-      <c r="B316" s="4"/>
+      <c r="B316" s="4">
+        <v>0</v>
+      </c>
       <c r="C316">
         <v>0</v>
       </c>
@@ -118098,11 +117850,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <v>0</v>
       </c>
-      <c r="B317" s="4"/>
+      <c r="B317" s="4">
+        <v>0</v>
+      </c>
       <c r="C317">
         <v>0</v>
       </c>
@@ -118170,11 +117924,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A318" s="4">
         <v>0</v>
       </c>
-      <c r="B318" s="4"/>
+      <c r="B318" s="4">
+        <v>0</v>
+      </c>
       <c r="C318">
         <v>0</v>
       </c>
@@ -118242,11 +117998,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <v>0</v>
       </c>
-      <c r="B319" s="4"/>
+      <c r="B319" s="4">
+        <v>0</v>
+      </c>
       <c r="C319">
         <v>0</v>
       </c>
@@ -118314,11 +118072,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A320" s="4">
         <v>0</v>
       </c>
-      <c r="B320" s="4"/>
+      <c r="B320" s="4">
+        <v>0</v>
+      </c>
       <c r="C320">
         <v>0</v>
       </c>
@@ -118386,11 +118146,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <v>0</v>
       </c>
-      <c r="B321" s="4"/>
+      <c r="B321" s="4">
+        <v>0</v>
+      </c>
       <c r="C321">
         <v>0</v>
       </c>
@@ -118458,11 +118220,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A322" s="4">
         <v>0</v>
       </c>
-      <c r="B322" s="4"/>
+      <c r="B322" s="4">
+        <v>0</v>
+      </c>
       <c r="C322">
         <v>0</v>
       </c>
@@ -118530,11 +118294,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <v>0</v>
       </c>
-      <c r="B323" s="4"/>
+      <c r="B323" s="4">
+        <v>0</v>
+      </c>
       <c r="C323">
         <v>0</v>
       </c>
@@ -118602,11 +118368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A324" s="4">
         <v>0</v>
       </c>
-      <c r="B324" s="4"/>
+      <c r="B324" s="4">
+        <v>0</v>
+      </c>
       <c r="C324">
         <v>0</v>
       </c>
@@ -118674,11 +118442,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <v>0</v>
       </c>
-      <c r="B325" s="4"/>
+      <c r="B325" s="4">
+        <v>0</v>
+      </c>
       <c r="C325">
         <v>0</v>
       </c>
@@ -118746,11 +118516,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A326" s="4">
         <v>0</v>
       </c>
-      <c r="B326" s="4"/>
+      <c r="B326" s="4">
+        <v>0</v>
+      </c>
       <c r="C326">
         <v>0</v>
       </c>
@@ -118818,11 +118590,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <v>0</v>
       </c>
-      <c r="B327" s="4"/>
+      <c r="B327" s="4">
+        <v>0</v>
+      </c>
       <c r="C327">
         <v>0</v>
       </c>
@@ -118890,11 +118664,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A328" s="4">
         <v>0</v>
       </c>
-      <c r="B328" s="4"/>
+      <c r="B328" s="4">
+        <v>0</v>
+      </c>
       <c r="C328">
         <v>0</v>
       </c>
@@ -118962,11 +118738,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <v>0</v>
       </c>
-      <c r="B329" s="4"/>
+      <c r="B329" s="4">
+        <v>0</v>
+      </c>
       <c r="C329">
         <v>0</v>
       </c>
@@ -119034,11 +118812,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A330" s="4">
         <v>0</v>
       </c>
-      <c r="B330" s="4"/>
+      <c r="B330" s="4">
+        <v>0</v>
+      </c>
       <c r="C330">
         <v>0</v>
       </c>
@@ -119106,11 +118886,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <v>0</v>
       </c>
-      <c r="B331" s="4"/>
+      <c r="B331" s="4">
+        <v>0</v>
+      </c>
       <c r="C331">
         <v>0</v>
       </c>
@@ -119178,11 +118960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A332" s="4">
         <v>0</v>
       </c>
-      <c r="B332" s="4"/>
+      <c r="B332" s="4">
+        <v>0</v>
+      </c>
       <c r="C332">
         <v>0</v>
       </c>
@@ -119250,11 +119034,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <v>0</v>
       </c>
-      <c r="B333" s="4"/>
+      <c r="B333" s="4">
+        <v>0</v>
+      </c>
       <c r="C333">
         <v>0</v>
       </c>
@@ -119322,11 +119108,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A334" s="4">
         <v>0</v>
       </c>
-      <c r="B334" s="4"/>
+      <c r="B334" s="4">
+        <v>0</v>
+      </c>
       <c r="C334">
         <v>0</v>
       </c>
@@ -119394,11 +119182,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <v>0</v>
       </c>
-      <c r="B335" s="4"/>
+      <c r="B335" s="4">
+        <v>0</v>
+      </c>
       <c r="C335">
         <v>0</v>
       </c>
@@ -119466,11 +119256,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A336" s="4">
         <v>0</v>
       </c>
-      <c r="B336" s="4"/>
+      <c r="B336" s="4">
+        <v>0</v>
+      </c>
       <c r="C336">
         <v>0</v>
       </c>
@@ -119538,11 +119330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A337" s="4">
         <v>0</v>
       </c>
-      <c r="B337" s="4"/>
+      <c r="B337" s="4">
+        <v>0</v>
+      </c>
       <c r="C337">
         <v>0</v>
       </c>
@@ -119610,11 +119404,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A338" s="4">
         <v>0</v>
       </c>
-      <c r="B338" s="4"/>
+      <c r="B338" s="4">
+        <v>0</v>
+      </c>
       <c r="C338">
         <v>0</v>
       </c>
@@ -119682,11 +119478,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <v>0</v>
       </c>
-      <c r="B339" s="4"/>
+      <c r="B339" s="4">
+        <v>0</v>
+      </c>
       <c r="C339">
         <v>0</v>
       </c>
@@ -119754,11 +119552,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A340" s="4">
         <v>0</v>
       </c>
-      <c r="B340" s="4"/>
+      <c r="B340" s="4">
+        <v>0</v>
+      </c>
       <c r="C340">
         <v>0</v>
       </c>
@@ -119826,11 +119626,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <v>0</v>
       </c>
-      <c r="B341" s="4"/>
+      <c r="B341" s="4">
+        <v>0</v>
+      </c>
       <c r="C341">
         <v>0</v>
       </c>
@@ -119898,7 +119700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A342" s="4">
         <v>0</v>
       </c>
@@ -119972,11 +119774,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <v>0</v>
       </c>
-      <c r="B343" s="4"/>
+      <c r="B343" s="4">
+        <v>0</v>
+      </c>
       <c r="C343">
         <v>0</v>
       </c>
@@ -120044,11 +119848,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A344" s="4">
         <v>0</v>
       </c>
-      <c r="B344" s="4"/>
+      <c r="B344" s="4">
+        <v>0</v>
+      </c>
       <c r="C344">
         <v>0</v>
       </c>
@@ -120116,11 +119922,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <v>0</v>
       </c>
-      <c r="B345" s="4"/>
+      <c r="B345" s="4">
+        <v>0</v>
+      </c>
       <c r="C345">
         <v>0</v>
       </c>
@@ -120188,11 +119996,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A346" s="4">
         <v>0</v>
       </c>
-      <c r="B346" s="4"/>
+      <c r="B346" s="4">
+        <v>0</v>
+      </c>
       <c r="C346">
         <v>0</v>
       </c>
@@ -120260,11 +120070,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <v>0</v>
       </c>
-      <c r="B347" s="4"/>
+      <c r="B347" s="4">
+        <v>0</v>
+      </c>
       <c r="C347">
         <v>0</v>
       </c>
@@ -120332,11 +120144,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A348" s="4">
         <v>0</v>
       </c>
-      <c r="B348" s="4"/>
+      <c r="B348" s="4">
+        <v>0</v>
+      </c>
       <c r="C348">
         <v>0</v>
       </c>
@@ -120404,11 +120218,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <v>0</v>
       </c>
-      <c r="B349" s="4"/>
+      <c r="B349" s="4">
+        <v>0</v>
+      </c>
       <c r="C349">
         <v>0</v>
       </c>
@@ -120476,11 +120292,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A350" s="4">
         <v>0</v>
       </c>
-      <c r="B350" s="4"/>
+      <c r="B350" s="4">
+        <v>0</v>
+      </c>
       <c r="C350">
         <v>0</v>
       </c>
@@ -120548,11 +120366,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <v>0</v>
       </c>
-      <c r="B351" s="4"/>
+      <c r="B351" s="4">
+        <v>0</v>
+      </c>
       <c r="C351">
         <v>0</v>
       </c>
@@ -120620,11 +120440,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A352" s="4">
         <v>0</v>
       </c>
-      <c r="B352" s="4"/>
+      <c r="B352" s="4">
+        <v>0</v>
+      </c>
       <c r="C352">
         <v>0</v>
       </c>
@@ -120692,11 +120514,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A353" s="4">
         <v>0</v>
       </c>
-      <c r="B353" s="4"/>
+      <c r="B353" s="4">
+        <v>0</v>
+      </c>
       <c r="C353">
         <v>0</v>
       </c>
@@ -120764,11 +120588,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A354" s="4">
         <v>0</v>
       </c>
-      <c r="B354" s="4"/>
+      <c r="B354" s="4">
+        <v>0</v>
+      </c>
       <c r="C354">
         <v>0</v>
       </c>
@@ -120836,11 +120662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <v>0</v>
       </c>
-      <c r="B355" s="4"/>
+      <c r="B355" s="4">
+        <v>0</v>
+      </c>
       <c r="C355">
         <v>0</v>
       </c>
@@ -120908,11 +120736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A356" s="4">
         <v>0</v>
       </c>
-      <c r="B356" s="4"/>
+      <c r="B356" s="4">
+        <v>0</v>
+      </c>
       <c r="C356">
         <v>0</v>
       </c>
@@ -120980,11 +120810,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <v>0</v>
       </c>
-      <c r="B357" s="4"/>
+      <c r="B357" s="4">
+        <v>0</v>
+      </c>
       <c r="C357">
         <v>0</v>
       </c>
@@ -121052,11 +120884,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A358" s="4">
         <v>0</v>
       </c>
-      <c r="B358" s="4"/>
+      <c r="B358" s="4">
+        <v>0</v>
+      </c>
       <c r="C358">
         <v>0</v>
       </c>
@@ -121124,11 +120958,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <v>0</v>
       </c>
-      <c r="B359" s="4"/>
+      <c r="B359" s="4">
+        <v>0</v>
+      </c>
       <c r="C359">
         <v>0</v>
       </c>
@@ -121196,11 +121032,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A360" s="4">
         <v>0</v>
       </c>
-      <c r="B360" s="4"/>
+      <c r="B360" s="4">
+        <v>0</v>
+      </c>
       <c r="C360">
         <v>0</v>
       </c>
@@ -121268,11 +121106,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <v>0</v>
       </c>
-      <c r="B361" s="4"/>
+      <c r="B361" s="4">
+        <v>0</v>
+      </c>
       <c r="C361">
         <v>0</v>
       </c>
@@ -121340,11 +121180,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A362" s="4">
         <v>0</v>
       </c>
-      <c r="B362" s="4"/>
+      <c r="B362" s="4">
+        <v>0</v>
+      </c>
       <c r="C362">
         <v>0</v>
       </c>
@@ -121412,11 +121254,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <v>0</v>
       </c>
-      <c r="B363" s="4"/>
+      <c r="B363" s="4">
+        <v>0</v>
+      </c>
       <c r="C363">
         <v>0</v>
       </c>
@@ -121484,11 +121328,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A364" s="4">
         <v>0</v>
       </c>
-      <c r="B364" s="4"/>
+      <c r="B364" s="4">
+        <v>0</v>
+      </c>
       <c r="C364">
         <v>0</v>
       </c>
@@ -121556,11 +121402,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <v>0</v>
       </c>
-      <c r="B365" s="4"/>
+      <c r="B365" s="4">
+        <v>0</v>
+      </c>
       <c r="C365">
         <v>0</v>
       </c>
@@ -121628,11 +121476,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A366" s="4">
         <v>0</v>
       </c>
-      <c r="B366" s="4"/>
+      <c r="B366" s="4">
+        <v>0</v>
+      </c>
       <c r="C366">
         <v>0</v>
       </c>
@@ -121700,11 +121550,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <v>0</v>
       </c>
-      <c r="B367" s="4"/>
+      <c r="B367" s="4">
+        <v>0</v>
+      </c>
       <c r="C367">
         <v>0</v>
       </c>
@@ -121772,11 +121624,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A368" s="4">
         <v>0</v>
       </c>
-      <c r="B368" s="4"/>
+      <c r="B368" s="4">
+        <v>0</v>
+      </c>
       <c r="C368">
         <v>0</v>
       </c>
@@ -121844,11 +121698,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <v>0</v>
       </c>
-      <c r="B369" s="4"/>
+      <c r="B369" s="4">
+        <v>0</v>
+      </c>
       <c r="C369">
         <v>0</v>
       </c>
@@ -121916,11 +121772,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A370" s="4">
         <v>0</v>
       </c>
-      <c r="B370" s="4"/>
+      <c r="B370" s="4">
+        <v>0</v>
+      </c>
       <c r="C370">
         <v>0</v>
       </c>
@@ -121988,11 +121846,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <v>0</v>
       </c>
-      <c r="B371" s="4"/>
+      <c r="B371" s="4">
+        <v>0</v>
+      </c>
       <c r="C371">
         <v>0</v>
       </c>
@@ -122060,11 +121920,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A372" s="4">
         <v>0</v>
       </c>
-      <c r="B372" s="4"/>
+      <c r="B372" s="4">
+        <v>0</v>
+      </c>
       <c r="C372">
         <v>0</v>
       </c>
@@ -122132,11 +121994,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A373" s="4">
         <v>0</v>
       </c>
-      <c r="B373" s="4"/>
+      <c r="B373" s="4">
+        <v>0</v>
+      </c>
       <c r="C373">
         <v>0</v>
       </c>
@@ -122204,11 +122068,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A374" s="4">
         <v>0</v>
       </c>
-      <c r="B374" s="4"/>
+      <c r="B374" s="4">
+        <v>0</v>
+      </c>
       <c r="C374">
         <v>0</v>
       </c>
@@ -122276,11 +122142,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A375" s="4">
         <v>0</v>
       </c>
-      <c r="B375" s="4"/>
+      <c r="B375" s="4">
+        <v>0</v>
+      </c>
       <c r="C375">
         <v>0</v>
       </c>
